--- a/create_forecast_basic/future/iplan/Intermediates/240501_pop_2030_iplan.xlsx
+++ b/create_forecast_basic/future/iplan/Intermediates/240501_pop_2030_iplan.xlsx
@@ -8838,7 +8838,7 @@
       </c>
       <c r="B218" t="inlineStr"/>
       <c r="C218" t="n">
-        <v>24647.67578060323</v>
+        <v>25017.97480219105</v>
       </c>
       <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr"/>
@@ -8863,7 +8863,7 @@
       </c>
       <c r="B219" t="inlineStr"/>
       <c r="C219" t="n">
-        <v>10447.34605085663</v>
+        <v>9908.902741580545</v>
       </c>
       <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr"/>
@@ -8888,7 +8888,7 @@
       </c>
       <c r="B220" t="inlineStr"/>
       <c r="C220" t="n">
-        <v>11191.94393096213</v>
+        <v>11360.0882186504</v>
       </c>
       <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr"/>
